--- a/games/games_full.xlsx
+++ b/games/games_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="729" documentId="14_{6D531364-793C-4225-BA75-A73EE9BFE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{683A6D0C-3F0C-40C4-ACB5-A77AB158074D}"/>
+  <xr:revisionPtr revIDLastSave="730" documentId="14_{6D531364-793C-4225-BA75-A73EE9BFE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF060256-6E83-433E-9E2A-B7BFAAFAFCBD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -4830,9 +4830,6 @@
     <t>Gratulálunk az állatkert végig nézéséhez.</t>
   </si>
   <si>
-    <t>thumgnails\allatkert.png</t>
-  </si>
-  <si>
     <t>Japánkert</t>
   </si>
   <si>
@@ -4960,6 +4957,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>thumbnails\allatkert.png</t>
   </si>
 </sst>
 </file>
@@ -5247,9 +5247,9 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6018,7 +6018,7 @@
         <v>1517</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1518</v>
+        <v>1561</v>
       </c>
     </row>
   </sheetData>
@@ -6036,7 +6036,7 @@
   </sheetPr>
   <dimension ref="A1:J245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D245" sqref="D245"/>
     </sheetView>
@@ -12764,19 +12764,19 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D232" t="s">
         <v>1558</v>
       </c>
-      <c r="D232" t="s">
+      <c r="F232" s="4" t="s">
         <v>1559</v>
       </c>
-      <c r="F232" s="4" t="s">
+      <c r="G232" t="s">
         <v>1560</v>
       </c>
-      <c r="G232" t="s">
-        <v>1561</v>
-      </c>
       <c r="J232" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="15.75" customHeight="1">
@@ -12787,19 +12787,19 @@
         <v>2</v>
       </c>
       <c r="C233" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D233" t="s">
         <v>1531</v>
       </c>
-      <c r="D233" t="s">
-        <v>1532</v>
-      </c>
       <c r="F233" s="4" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G233" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J233" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="15.75" customHeight="1">
@@ -12810,19 +12810,19 @@
         <v>3</v>
       </c>
       <c r="C234" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D234" t="s">
         <v>1556</v>
       </c>
-      <c r="D234" t="s">
-        <v>1557</v>
-      </c>
       <c r="F234" s="4" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="G234" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J234" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="15.75" customHeight="1">
@@ -12833,19 +12833,19 @@
         <v>4</v>
       </c>
       <c r="C235" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D235" t="s">
         <v>1533</v>
       </c>
-      <c r="D235" t="s">
-        <v>1534</v>
-      </c>
       <c r="F235" s="4" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="G235" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J235" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="15.75" customHeight="1">
@@ -12856,19 +12856,19 @@
         <v>5</v>
       </c>
       <c r="C236" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D236" t="s">
         <v>1535</v>
       </c>
-      <c r="D236" t="s">
-        <v>1536</v>
-      </c>
       <c r="F236" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="G236" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J236" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="15.75" customHeight="1">
@@ -12879,19 +12879,19 @@
         <v>6</v>
       </c>
       <c r="C237" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D237" t="s">
         <v>1537</v>
       </c>
-      <c r="D237" t="s">
-        <v>1538</v>
-      </c>
       <c r="F237" s="4" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="G237" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J237" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="15.75" customHeight="1">
@@ -12902,19 +12902,19 @@
         <v>7</v>
       </c>
       <c r="C238" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D238" t="s">
         <v>1539</v>
       </c>
-      <c r="D238" t="s">
-        <v>1540</v>
-      </c>
       <c r="F238" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="G238" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J238" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="15.75" customHeight="1">
@@ -12925,19 +12925,19 @@
         <v>8</v>
       </c>
       <c r="C239" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D239" t="s">
         <v>1541</v>
       </c>
-      <c r="D239" t="s">
-        <v>1542</v>
-      </c>
       <c r="F239" s="4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="G239" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J239" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="15.75" customHeight="1">
@@ -12948,19 +12948,19 @@
         <v>9</v>
       </c>
       <c r="C240" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D240" t="s">
         <v>1543</v>
       </c>
-      <c r="D240" t="s">
-        <v>1544</v>
-      </c>
       <c r="F240" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G240" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J240" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="15.75" customHeight="1">
@@ -12971,19 +12971,19 @@
         <v>10</v>
       </c>
       <c r="C241" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D241" t="s">
         <v>1545</v>
       </c>
-      <c r="D241" t="s">
-        <v>1546</v>
-      </c>
       <c r="F241" s="4" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="G241" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J241" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="15.75" customHeight="1">
@@ -12994,19 +12994,19 @@
         <v>11</v>
       </c>
       <c r="C242" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D242" t="s">
         <v>1547</v>
       </c>
-      <c r="D242" t="s">
-        <v>1548</v>
-      </c>
       <c r="F242" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="G242" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J242" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="15.75" customHeight="1">
@@ -13017,19 +13017,19 @@
         <v>12</v>
       </c>
       <c r="C243" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D243" t="s">
         <v>1549</v>
       </c>
-      <c r="D243" t="s">
-        <v>1550</v>
-      </c>
       <c r="F243" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="G243" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J243" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="15.75" customHeight="1">
@@ -13040,19 +13040,19 @@
         <v>13</v>
       </c>
       <c r="C244" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D244" t="s">
         <v>1551</v>
       </c>
-      <c r="D244" t="s">
-        <v>1552</v>
-      </c>
       <c r="F244" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="G244" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J244" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="15.75" customHeight="1">
@@ -13063,19 +13063,19 @@
         <v>14</v>
       </c>
       <c r="C245" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D245" t="s">
         <v>1553</v>
       </c>
-      <c r="D245" t="s">
-        <v>1554</v>
-      </c>
       <c r="F245" s="4" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="G245" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J245" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_full.xlsx
+++ b/games/games_full.xlsx
@@ -5247,9 +5247,9 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>

--- a/games/games_full.xlsx
+++ b/games/games_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="730" documentId="14_{6D531364-793C-4225-BA75-A73EE9BFE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF060256-6E83-433E-9E2A-B7BFAAFAFCBD}"/>
+  <xr:revisionPtr revIDLastSave="805" documentId="14_{6D531364-793C-4225-BA75-A73EE9BFE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DDFB7EA-E74D-482D-B7F1-AD8F80FBDD1E}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="1562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="1598">
   <si>
     <t>id</t>
   </si>
@@ -4960,6 +4960,118 @@
   </si>
   <si>
     <t>thumbnails\allatkert.png</t>
+  </si>
+  <si>
+    <t>varosliget-team1</t>
+  </si>
+  <si>
+    <t>12+</t>
+  </si>
+  <si>
+    <t>47.510945856107455</t>
+  </si>
+  <si>
+    <t>19.090889227870335</t>
+  </si>
+  <si>
+    <t>thumbnails\varosliget.png</t>
+  </si>
+  <si>
+    <t>A Városligeti Küldetés – A Rejtélyes Térkép Nyomában</t>
+  </si>
+  <si>
+    <t>A nap lassan lebukott a fák mögött, amikor a csapatok a Nagyjátszótérnél újra összeértek. A tíz titokból összeállt az üzenet:
+„A barátság az, ami minden kalandnál tovább tart.”
+Nevetve, fáradtan, de büszkén néztek egymásra – mindannyian tudták, hogy most már nemcsak egy osztály, hanem egy igazi csapat lettek.
+A Városliget titka feltárult – de talán maradt benne még egy-két rejtély a következő kirándulásra is…</t>
+  </si>
+  <si>
+    <t>47.51276124539513</t>
+  </si>
+  <si>
+    <t>19.091646675558767</t>
+  </si>
+  <si>
+    <t>47.51298670755062</t>
+  </si>
+  <si>
+    <t>19.090618185926388</t>
+  </si>
+  <si>
+    <t>47.51273687105004</t>
+  </si>
+  <si>
+    <t>19.088272507817447</t>
+  </si>
+  <si>
+    <t>47.512898889906786</t>
+  </si>
+  <si>
+    <t>19.089322538857886</t>
+  </si>
+  <si>
+    <t>47.511776708719566</t>
+  </si>
+  <si>
+    <t>19.089167017002424</t>
+  </si>
+  <si>
+    <t>47.51191506112168</t>
+  </si>
+  <si>
+    <t>19.087949394670655</t>
+  </si>
+  <si>
+    <t>47.51133602826018</t>
+  </si>
+  <si>
+    <t>19.09036188007657</t>
+  </si>
+  <si>
+    <t>47.51106188214902</t>
+  </si>
+  <si>
+    <t>19.089212535584025</t>
+  </si>
+  <si>
+    <t>47.512351620524036</t>
+  </si>
+  <si>
+    <t>19.08718741675929</t>
+  </si>
+  <si>
+    <t>47.511228455554175</t>
+  </si>
+  <si>
+    <t>19.087866136757686</t>
+  </si>
+  <si>
+    <t>BARÁTSÁG!</t>
+  </si>
+  <si>
+    <t>Egy napsütéses tavaszi napon a 8.B osztály izgatottan érkezett meg a Városligetbe. Azt hitték, csak egy egyszerű osztálykirándulás lesz, amíg Rita tanárnő elő nem húzott egy régi, megsárgult térképet. A térképen furcsa jelek és számok voltak, és a sarkában egy titokzatos felirat: „Aki mind a tíz titkot feltárja, megismeri a Liget őrzőjének rejtett üzenetét.”
+A csapatok gyorsan megalakultak – és kezdetét vette a kaland. A cél: felfedni a Városliget tíz titkát, és megfejteni a végső üzenetet, mielőtt lemegy a nap. -Jól jegyezzétek meg mindegyik feladat megoldását a végén szükség lesz rá.-</t>
+  </si>
+  <si>
+    <t>Az egyik legfontosabb az életben.</t>
+  </si>
+  <si>
+    <t>A térkép utolsó jele itt található, egy nagy X a füves mező közepén. Ha mind a kilenc titkot megfejtettétek, itt vár az utolsó kihívás.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>Rakjátok össze a kilenc helyszínen szerzett jeleket –  az anagrammából egy szó adja meg az őrző üzenetét. Vajon mit üzen a Liget nektek?</t>
+  </si>
+  <si>
+    <t>AT!BÁSGRÁ</t>
   </si>
 </sst>
 </file>
@@ -5245,11 +5357,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6021,6 +6133,38 @@
         <v>1561</v>
       </c>
     </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>1566</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -6034,11 +6178,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J245"/>
+  <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D245" sqref="D245"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I256" sqref="I256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -13078,6 +13222,223 @@
         <v>1560</v>
       </c>
     </row>
+    <row r="246" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A246" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G246" t="s">
+        <v>1593</v>
+      </c>
+      <c r="J246" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A247" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F247" s="4"/>
+      <c r="G247" t="s">
+        <v>1400</v>
+      </c>
+      <c r="J247" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A248" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G248" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J248" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A249" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B249">
+        <v>4</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F249" s="4"/>
+      <c r="G249" t="s">
+        <v>29</v>
+      </c>
+      <c r="J249" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A250" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B250">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G250" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J250" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A251" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B251">
+        <v>6</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G251" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J251" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A252" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B252">
+        <v>7</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G252" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J252" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A253" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B253">
+        <v>8</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G253" t="s">
+        <v>27</v>
+      </c>
+      <c r="J253" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A254" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B254">
+        <v>9</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G254" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J254" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A255" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B255">
+        <v>10</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F255" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G255" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H255" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I255" t="s">
+        <v>1591</v>
+      </c>
+      <c r="J255" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A256" s="3"/>
+    </row>
+    <row r="257" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A257" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J138" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/games/games_full.xlsx
+++ b/games/games_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="805" documentId="14_{6D531364-793C-4225-BA75-A73EE9BFE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DDFB7EA-E74D-482D-B7F1-AD8F80FBDD1E}"/>
+  <xr:revisionPtr revIDLastSave="806" documentId="14_{6D531364-793C-4225-BA75-A73EE9BFE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7F0AAAC-F1CB-4945-9726-145C643B3452}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2388" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -5049,29 +5049,29 @@
     <t>BARÁTSÁG!</t>
   </si>
   <si>
-    <t>Egy napsütéses tavaszi napon a 8.B osztály izgatottan érkezett meg a Városligetbe. Azt hitték, csak egy egyszerű osztálykirándulás lesz, amíg Rita tanárnő elő nem húzott egy régi, megsárgult térképet. A térképen furcsa jelek és számok voltak, és a sarkában egy titokzatos felirat: „Aki mind a tíz titkot feltárja, megismeri a Liget őrzőjének rejtett üzenetét.”
+    <t>Az egyik legfontosabb az életben.</t>
+  </si>
+  <si>
+    <t>A térkép utolsó jele itt található, egy nagy X a füves mező közepén. Ha mind a kilenc titkot megfejtettétek, itt vár az utolsó kihívás.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>Rakjátok össze a kilenc helyszínen szerzett jeleket –  az anagrammából egy szó adja meg az őrző üzenetét. Vajon mit üzen a Liget nektek?</t>
+  </si>
+  <si>
+    <t>AT!BÁSGRÁ</t>
+  </si>
+  <si>
+    <t>Egy napsütéses tavaszi napon a 8.B osztály izgatottan érkezett meg a Városligetbe. Azt hitték, csak egy egyszerű osztálykirándulás lesz, amíg Ritanéni elő nem húzott egy régi, megsárgult térképet. A térképen furcsa jelek és számok voltak, és a sarkában egy titokzatos felirat: „Aki mind a tíz titkot feltárja, megismeri a Liget őrzőjének rejtett üzenetét.”
 A csapatok gyorsan megalakultak – és kezdetét vette a kaland. A cél: felfedni a Városliget tíz titkát, és megfejteni a végső üzenetet, mielőtt lemegy a nap. -Jól jegyezzétek meg mindegyik feladat megoldását a végén szükség lesz rá.-</t>
-  </si>
-  <si>
-    <t>Az egyik legfontosabb az életben.</t>
-  </si>
-  <si>
-    <t>A térkép utolsó jele itt található, egy nagy X a füves mező közepén. Ha mind a kilenc titkot megfejtettétek, itt vár az utolsó kihívás.</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>Rakjátok össze a kilenc helyszínen szerzett jeleket –  az anagrammából egy szó adja meg az őrző üzenetét. Vajon mit üzen a Liget nektek?</t>
-  </si>
-  <si>
-    <t>AT!BÁSGRÁ</t>
   </si>
 </sst>
 </file>
@@ -5359,9 +5359,9 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>1590</v>
+        <v>1597</v>
       </c>
       <c r="G25" t="s">
         <v>1564</v>
@@ -6180,7 +6180,7 @@
   </sheetPr>
   <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I256" sqref="I256"/>
     </sheetView>
@@ -13236,10 +13236,10 @@
         <v>1570</v>
       </c>
       <c r="G246" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="J246" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="15.75" customHeight="1">
@@ -13277,10 +13277,10 @@
         <v>1574</v>
       </c>
       <c r="G248" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="J248" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="15.75" customHeight="1">
@@ -13338,10 +13338,10 @@
         <v>1580</v>
       </c>
       <c r="G251" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="J251" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="15.75" customHeight="1">
@@ -13418,16 +13418,16 @@
         <v>1588</v>
       </c>
       <c r="F255" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G255" t="s">
+        <v>1595</v>
+      </c>
+      <c r="H255" t="s">
         <v>1596</v>
       </c>
-      <c r="H255" t="s">
-        <v>1597</v>
-      </c>
       <c r="I255" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="J255" t="s">
         <v>1589</v>

--- a/games/games_full.xlsx
+++ b/games/games_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="806" documentId="14_{6D531364-793C-4225-BA75-A73EE9BFE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7F0AAAC-F1CB-4945-9726-145C643B3452}"/>
+  <xr:revisionPtr revIDLastSave="807" documentId="14_{6D531364-793C-4225-BA75-A73EE9BFE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB7D0B7-9627-40A2-94F1-ACEBCFE18AF1}"/>
   <bookViews>
     <workbookView xWindow="2616" yWindow="2388" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4980,98 +4980,98 @@
     <t>A Városligeti Küldetés – A Rejtélyes Térkép Nyomában</t>
   </si>
   <si>
-    <t>A nap lassan lebukott a fák mögött, amikor a csapatok a Nagyjátszótérnél újra összeértek. A tíz titokból összeállt az üzenet:
+    <t>47.51276124539513</t>
+  </si>
+  <si>
+    <t>19.091646675558767</t>
+  </si>
+  <si>
+    <t>47.51298670755062</t>
+  </si>
+  <si>
+    <t>19.090618185926388</t>
+  </si>
+  <si>
+    <t>47.51273687105004</t>
+  </si>
+  <si>
+    <t>19.088272507817447</t>
+  </si>
+  <si>
+    <t>47.512898889906786</t>
+  </si>
+  <si>
+    <t>19.089322538857886</t>
+  </si>
+  <si>
+    <t>47.511776708719566</t>
+  </si>
+  <si>
+    <t>19.089167017002424</t>
+  </si>
+  <si>
+    <t>47.51191506112168</t>
+  </si>
+  <si>
+    <t>19.087949394670655</t>
+  </si>
+  <si>
+    <t>47.51133602826018</t>
+  </si>
+  <si>
+    <t>19.09036188007657</t>
+  </si>
+  <si>
+    <t>47.51106188214902</t>
+  </si>
+  <si>
+    <t>19.089212535584025</t>
+  </si>
+  <si>
+    <t>47.512351620524036</t>
+  </si>
+  <si>
+    <t>19.08718741675929</t>
+  </si>
+  <si>
+    <t>47.511228455554175</t>
+  </si>
+  <si>
+    <t>19.087866136757686</t>
+  </si>
+  <si>
+    <t>BARÁTSÁG!</t>
+  </si>
+  <si>
+    <t>Az egyik legfontosabb az életben.</t>
+  </si>
+  <si>
+    <t>A térkép utolsó jele itt található, egy nagy X a füves mező közepén. Ha mind a kilenc titkot megfejtettétek, itt vár az utolsó kihívás.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>Rakjátok össze a kilenc helyszínen szerzett jeleket –  az anagrammából egy szó adja meg az őrző üzenetét. Vajon mit üzen a Liget nektek?</t>
+  </si>
+  <si>
+    <t>AT!BÁSGRÁ</t>
+  </si>
+  <si>
+    <t>Egy napsütéses tavaszi napon a 8.B osztály izgatottan érkezett meg a Városligetbe. Azt hitték, csak egy egyszerű osztálykirándulás lesz, amíg Ritanéni elő nem húzott egy régi, megsárgult térképet. A térképen furcsa jelek és számok voltak, és a sarkában egy titokzatos felirat: „Aki mind a tíz titkot feltárja, megismeri a Liget őrzőjének rejtett üzenetét.”
+A csapatok gyorsan megalakultak – és kezdetét vette a kaland. A cél: felfedni a Városliget tíz titkát, és megfejteni a végső üzenetet, mielőtt lemegy a nap. -Jól jegyezzétek meg mindegyik feladat megoldását a végén szükség lesz rá.-</t>
+  </si>
+  <si>
+    <t>A nap lassan lebukott a fák mögött, amikor a csapatok a rét közepén újra összeértek. A tíz titokból összeállt az üzenet:
 „A barátság az, ami minden kalandnál tovább tart.”
 Nevetve, fáradtan, de büszkén néztek egymásra – mindannyian tudták, hogy most már nemcsak egy osztály, hanem egy igazi csapat lettek.
 A Városliget titka feltárult – de talán maradt benne még egy-két rejtély a következő kirándulásra is…</t>
-  </si>
-  <si>
-    <t>47.51276124539513</t>
-  </si>
-  <si>
-    <t>19.091646675558767</t>
-  </si>
-  <si>
-    <t>47.51298670755062</t>
-  </si>
-  <si>
-    <t>19.090618185926388</t>
-  </si>
-  <si>
-    <t>47.51273687105004</t>
-  </si>
-  <si>
-    <t>19.088272507817447</t>
-  </si>
-  <si>
-    <t>47.512898889906786</t>
-  </si>
-  <si>
-    <t>19.089322538857886</t>
-  </si>
-  <si>
-    <t>47.511776708719566</t>
-  </si>
-  <si>
-    <t>19.089167017002424</t>
-  </si>
-  <si>
-    <t>47.51191506112168</t>
-  </si>
-  <si>
-    <t>19.087949394670655</t>
-  </si>
-  <si>
-    <t>47.51133602826018</t>
-  </si>
-  <si>
-    <t>19.09036188007657</t>
-  </si>
-  <si>
-    <t>47.51106188214902</t>
-  </si>
-  <si>
-    <t>19.089212535584025</t>
-  </si>
-  <si>
-    <t>47.512351620524036</t>
-  </si>
-  <si>
-    <t>19.08718741675929</t>
-  </si>
-  <si>
-    <t>47.511228455554175</t>
-  </si>
-  <si>
-    <t>19.087866136757686</t>
-  </si>
-  <si>
-    <t>BARÁTSÁG!</t>
-  </si>
-  <si>
-    <t>Az egyik legfontosabb az életben.</t>
-  </si>
-  <si>
-    <t>A térkép utolsó jele itt található, egy nagy X a füves mező közepén. Ha mind a kilenc titkot megfejtettétek, itt vár az utolsó kihívás.</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>Rakjátok össze a kilenc helyszínen szerzett jeleket –  az anagrammából egy szó adja meg az őrző üzenetét. Vajon mit üzen a Liget nektek?</t>
-  </si>
-  <si>
-    <t>AT!BÁSGRÁ</t>
-  </si>
-  <si>
-    <t>Egy napsütéses tavaszi napon a 8.B osztály izgatottan érkezett meg a Városligetbe. Azt hitték, csak egy egyszerű osztálykirándulás lesz, amíg Ritanéni elő nem húzott egy régi, megsárgult térképet. A térképen furcsa jelek és számok voltak, és a sarkában egy titokzatos felirat: „Aki mind a tíz titkot feltárja, megismeri a Liget őrzőjének rejtett üzenetét.”
-A csapatok gyorsan megalakultak – és kezdetét vette a kaland. A cél: felfedni a Városliget tíz titkát, és megfejteni a végső üzenetet, mielőtt lemegy a nap. -Jól jegyezzétek meg mindegyik feladat megoldását a végén szükség lesz rá.-</t>
   </si>
 </sst>
 </file>
@@ -5359,9 +5359,9 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="G25" t="s">
         <v>1564</v>
@@ -6159,7 +6159,7 @@
         <v>1565</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>1568</v>
+        <v>1597</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>1566</v>
@@ -13230,16 +13230,16 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D246" t="s">
         <v>1569</v>
       </c>
-      <c r="D246" t="s">
-        <v>1570</v>
-      </c>
       <c r="G246" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="J246" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="15.75" customHeight="1">
@@ -13250,10 +13250,10 @@
         <v>2</v>
       </c>
       <c r="C247" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D247" t="s">
         <v>1571</v>
-      </c>
-      <c r="D247" t="s">
-        <v>1572</v>
       </c>
       <c r="F247" s="4"/>
       <c r="G247" t="s">
@@ -13271,16 +13271,16 @@
         <v>3</v>
       </c>
       <c r="C248" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D248" t="s">
         <v>1573</v>
       </c>
-      <c r="D248" t="s">
-        <v>1574</v>
-      </c>
       <c r="G248" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="J248" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="15.75" customHeight="1">
@@ -13291,10 +13291,10 @@
         <v>4</v>
       </c>
       <c r="C249" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D249" t="s">
         <v>1575</v>
-      </c>
-      <c r="D249" t="s">
-        <v>1576</v>
       </c>
       <c r="F249" s="4"/>
       <c r="G249" t="s">
@@ -13312,10 +13312,10 @@
         <v>5</v>
       </c>
       <c r="C250" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D250" t="s">
         <v>1577</v>
-      </c>
-      <c r="D250" t="s">
-        <v>1578</v>
       </c>
       <c r="G250" t="s">
         <v>1403</v>
@@ -13332,16 +13332,16 @@
         <v>6</v>
       </c>
       <c r="C251" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D251" t="s">
         <v>1579</v>
       </c>
-      <c r="D251" t="s">
-        <v>1580</v>
-      </c>
       <c r="G251" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="J251" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="15.75" customHeight="1">
@@ -13352,10 +13352,10 @@
         <v>7</v>
       </c>
       <c r="C252" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D252" t="s">
         <v>1581</v>
-      </c>
-      <c r="D252" t="s">
-        <v>1582</v>
       </c>
       <c r="G252" t="s">
         <v>1116</v>
@@ -13372,10 +13372,10 @@
         <v>8</v>
       </c>
       <c r="C253" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D253" t="s">
         <v>1583</v>
-      </c>
-      <c r="D253" t="s">
-        <v>1584</v>
       </c>
       <c r="G253" t="s">
         <v>27</v>
@@ -13392,10 +13392,10 @@
         <v>9</v>
       </c>
       <c r="C254" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D254" t="s">
         <v>1585</v>
-      </c>
-      <c r="D254" t="s">
-        <v>1586</v>
       </c>
       <c r="G254" t="s">
         <v>1403</v>
@@ -13412,25 +13412,25 @@
         <v>10</v>
       </c>
       <c r="C255" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D255" t="s">
         <v>1587</v>
       </c>
-      <c r="D255" t="s">
+      <c r="F255" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G255" t="s">
+        <v>1594</v>
+      </c>
+      <c r="H255" t="s">
+        <v>1595</v>
+      </c>
+      <c r="I255" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J255" t="s">
         <v>1588</v>
-      </c>
-      <c r="F255" t="s">
-        <v>1591</v>
-      </c>
-      <c r="G255" t="s">
-        <v>1595</v>
-      </c>
-      <c r="H255" t="s">
-        <v>1596</v>
-      </c>
-      <c r="I255" t="s">
-        <v>1590</v>
-      </c>
-      <c r="J255" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="15.75" customHeight="1">

--- a/games/games_full.xlsx
+++ b/games/games_full.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="807" documentId="14_{6D531364-793C-4225-BA75-A73EE9BFE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB7D0B7-9627-40A2-94F1-ACEBCFE18AF1}"/>
+  <xr:revisionPtr revIDLastSave="1065" documentId="14_{6D531364-793C-4225-BA75-A73EE9BFE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B59C6988-9CF4-4FCE-B340-082027328CD4}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2388" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
     <sheet name="tasks" sheetId="2" r:id="rId2"/>
+    <sheet name="feladat ötletek" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tasks!$A$1:$J$138</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="1598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="1729">
   <si>
     <t>id</t>
   </si>
@@ -4980,88 +4981,19 @@
     <t>A Városligeti Küldetés – A Rejtélyes Térkép Nyomában</t>
   </si>
   <si>
-    <t>47.51276124539513</t>
-  </si>
-  <si>
-    <t>19.091646675558767</t>
-  </si>
-  <si>
-    <t>47.51298670755062</t>
-  </si>
-  <si>
-    <t>19.090618185926388</t>
-  </si>
-  <si>
-    <t>47.51273687105004</t>
-  </si>
-  <si>
-    <t>19.088272507817447</t>
-  </si>
-  <si>
-    <t>47.512898889906786</t>
-  </si>
-  <si>
-    <t>19.089322538857886</t>
-  </si>
-  <si>
-    <t>47.511776708719566</t>
-  </si>
-  <si>
-    <t>19.089167017002424</t>
-  </si>
-  <si>
-    <t>47.51191506112168</t>
-  </si>
-  <si>
-    <t>19.087949394670655</t>
-  </si>
-  <si>
-    <t>47.51133602826018</t>
-  </si>
-  <si>
-    <t>19.09036188007657</t>
-  </si>
-  <si>
-    <t>47.51106188214902</t>
-  </si>
-  <si>
-    <t>19.089212535584025</t>
-  </si>
-  <si>
-    <t>47.512351620524036</t>
-  </si>
-  <si>
-    <t>19.08718741675929</t>
-  </si>
-  <si>
     <t>47.511228455554175</t>
   </si>
   <si>
     <t>19.087866136757686</t>
   </si>
   <si>
-    <t>BARÁTSÁG!</t>
-  </si>
-  <si>
     <t>Az egyik legfontosabb az életben.</t>
   </si>
   <si>
-    <t>A térkép utolsó jele itt található, egy nagy X a füves mező közepén. Ha mind a kilenc titkot megfejtettétek, itt vár az utolsó kihívás.</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>S</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>Rakjátok össze a kilenc helyszínen szerzett jeleket –  az anagrammából egy szó adja meg az őrző üzenetét. Vajon mit üzen a Liget nektek?</t>
-  </si>
-  <si>
-    <t>AT!BÁSGRÁ</t>
   </si>
   <si>
     <t>Egy napsütéses tavaszi napon a 8.B osztály izgatottan érkezett meg a Városligetbe. Azt hitték, csak egy egyszerű osztálykirándulás lesz, amíg Ritanéni elő nem húzott egy régi, megsárgult térképet. A térképen furcsa jelek és számok voltak, és a sarkában egy titokzatos felirat: „Aki mind a tíz titkot feltárja, megismeri a Liget őrzőjének rejtett üzenetét.”
@@ -5072,6 +5004,565 @@
 „A barátság az, ami minden kalandnál tovább tart.”
 Nevetve, fáradtan, de büszkén néztek egymásra – mindannyian tudták, hogy most már nemcsak egy osztály, hanem egy igazi csapat lettek.
 A Városliget titka feltárult – de talán maradt benne még egy-két rejtély a következő kirándulásra is…</t>
+  </si>
+  <si>
+    <t>Vajon mit üzen a Liget nektek?</t>
+  </si>
+  <si>
+    <t>A térkép utolsó jele itt található egy nagy füves domb tetején. Ha mind a kilenc titkot megfejtettétek, itt vár az utolsó kihívás. Rakjátok össze a kilenc helyszínen szerzett jeleket –  az anagrammából egy szó adja meg az őrző üzenetét.</t>
+  </si>
+  <si>
+    <t>Jól nézd meg a táblákat.</t>
+  </si>
+  <si>
+    <t>Az egyik nincs köztük.</t>
+  </si>
+  <si>
+    <t>Kresszpája</t>
+  </si>
+  <si>
+    <t>Ocskay László
+magyar királyi honvéd százados emlékére, 
+aki 1944-1945 fordulóján több ezer magyar zsidó életét mentette meg.</t>
+  </si>
+  <si>
+    <t>Tompa Mihálynak
+A virágok lelke
+A magyar néprege
+AZ ELMÚLÁS GONDOLOATA KÖLTŐJÉNEK</t>
+  </si>
+  <si>
+    <t>OLOF PALME
+1927-1986
+Svéd Államférfi,
+A béke és a haladás harcosa emlékére
+Állította:
+Budapest Főváros Tanácsa 
+1987</t>
+  </si>
+  <si>
+    <t>Olvasó Lányok
+LIPTO UJVÁRI STROBL A
+ÖNTÖTTE: VIGNALI</t>
+  </si>
+  <si>
+    <t>Millenium Háza</t>
+  </si>
+  <si>
+    <t>Az oldalak szimetrikusak.</t>
+  </si>
+  <si>
+    <t>A hosszú oldalon 11.</t>
+  </si>
+  <si>
+    <t>Hány boltív található az épületen?
+Kell még valami hogy betűt adjon ki a végén</t>
+  </si>
+  <si>
+    <t>ANNA LINDH
+SVÉD KÜLÜGYMINISZTER
+(1957-2003)
+"A BELENYUGVÁS
+A LEGNAGYOBB
+ELLENSÉGÜNK"</t>
+  </si>
+  <si>
+    <t>RUDOLF szobor</t>
+  </si>
+  <si>
+    <t>Rózsakert
+1500 tő rózsa illatozik
+Zsolnay-díszkút 48db fúvóka alul 3 füvóka tetején (halak)</t>
+  </si>
+  <si>
+    <t>Somlyó Zoltán
+költő
+1882-1937</t>
+  </si>
+  <si>
+    <t>Füst Milán
+1888-1967</t>
+  </si>
+  <si>
+    <t>Benedek Elek
+1859-1929
+Illyés Antal 2011 (csinálta)</t>
+  </si>
+  <si>
+    <t>Lev Tolsztoj
+1828-1910
+Allíttatta a Tolsztoj Társaság a Magyar-Orosz Együttműködésért Egyesület
+Vaszil Roman, 2013</t>
+  </si>
+  <si>
+    <t>Pósa Lajos
+Budapest és Szeged
+Közönségének Hozzájárulásával
+Emelte
+Az Én Újságom</t>
+  </si>
+  <si>
+    <t>Liget 1</t>
+  </si>
+  <si>
+    <t>Liget2</t>
+  </si>
+  <si>
+    <t>valami logikai kérédés</t>
+  </si>
+  <si>
+    <t>Vízhordó fiú
+Erdey D
+1925</t>
+  </si>
+  <si>
+    <t>Erdélyi Zsuzsanna
+Néprajztudós
+1921-2015
+IMMACULATA Alapítvány</t>
+  </si>
+  <si>
+    <t>Újrafaragta Baráz Tamás 2022</t>
+  </si>
+  <si>
+    <t>Magyar Zene Háza körül a földön fém mozgó valamik amik hangot adnak ki.
+Spirális Hangbokor / Terebessy Tóbiás alkotása</t>
+  </si>
+  <si>
+    <t>To the memory of Washington 
+The Hungarians of America 1906
+13 csillag az amerikai zászló faragáson
+Washington emlékének az Amerikai Magyarok 1906</t>
+  </si>
+  <si>
+    <t>George Castriota Scanderbeg
+1405-1468
+Donation of the Municipality
+of Tirana - Albania 2019
+egyik oldalán: ODHISE PASKALI 1939</t>
+  </si>
+  <si>
+    <t>HUNYADI
+PÁTZAY PÁL SZOBRÁSZMŰVÉSZ
+VADÁSZ GYÖRGY ÉPíTÉSZ 1986</t>
+  </si>
+  <si>
+    <t>Kolodko Drakula szobor</t>
+  </si>
+  <si>
+    <t>BÉLA LUGOSI
+1882-1956</t>
+  </si>
+  <si>
+    <t>MITERPACHER LAJOS 1734-1814
+TAKÁCS - 962
+(amúgy Takács Ferenc 1962-ben készítette)</t>
+  </si>
+  <si>
+    <t>TESSEDIK SÁMUEL
+1742-1820
+Szabó Iván 1960</t>
+  </si>
+  <si>
+    <t>NAGYVÁTHY JÁNOS 1755-1819
+VASTAGH LÁSZLÓ 1960</t>
+  </si>
+  <si>
+    <t>PETHE FERENC 1763-1832</t>
+  </si>
+  <si>
+    <t>ez a 4 szobor egymás mellett</t>
+  </si>
+  <si>
+    <t>ÁCHIM L. ANDRÁS
+ONDREJ ÁCHIM L.
+1871-1911</t>
+  </si>
+  <si>
+    <t>Anonymus
+ANONYMVS=
+GLORIOSISSIMI BELÆ REGIS NOTARIUS
+latinul van, és így fordítható:
+„a dicsőséges Béla király jegyzője”.
+Gloriosissimi → „a legdicsőségesebb” (felsőfok)
+Belæ regis → „Béla királynak” (Béla király birtokos esete)
+notarius → „jegyző”, „írnok”, „krónikaíró”
+Alkotó: Ligeti Miklós (szobrászművész)
+Felállítás éve: 1903
+👤 Ki volt Anonymus?
+Anonymus („névtelen”) volt a 12–13. században élt krónikaíró, aki a „Gesta Hungarorum” (A magyarok cselekedetei) című mű szerzője.
+A krónikában leírta, hogyan foglalták el a magyarok a Kárpát-medencét a honfoglalás idején.
+A mű bevezetőjében úgy utal magára, mint „P. dictus magister, quondam notarius Bele regis” – azaz: „P. nevű mester, egykor Béla király jegyzője”.
+Nem tudjuk pontosan, melyik Béla királyról van szó, innen ered a „névtelen” (Anonymus) elnevezés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jáki Kápolna
+</t>
+  </si>
+  <si>
+    <t>Darányi Ignác szobor
+(talapzato): SI MONUMENTUM QUAERIS, CIRCUMSPICE!</t>
+  </si>
+  <si>
+    <t>Vajdahunyad vár bejárata 2 oroszlán</t>
+  </si>
+  <si>
+    <t>Alpár Ignác
+1855-1928.
+A TÖRTÉNELMI
+EMLÉKCSOPORT MEGALKOTÁSÁVAL
+NEMZETI DICSŐSÉGÜNKET
+TETTE MARADANDÓVÁ
+BUDAPEST SZÉKESFŐVÁROS
+KÖZÖNSÉGÉNEK ÁLDOZATKÉSZSÉGÉVEL
+A NAGY MAGYAR ÉPITŐMESTERNEK
+KÖZADAKOZÁSBÓL EMELTE
+A BUDAPESTI ÉPITŐMESTEREK
+IPARTESTÜLETE
+1931
+(szobor talapzatán): TELCS
+(másik oldalán): ÖNTÖTTE SZILI ISTVÁN BUDAPEST</t>
+  </si>
+  <si>
+    <t>Sellők Díszkútja</t>
+  </si>
+  <si>
+    <t>ZSIGMONDY VILMOS
+BÁNYAMÉRNÖK
+1821-1888
+MEGTEREMTETTE A HAZAI MÉLYFÚRÓIPART
+Ő FAKASZTOTTA A VÁROSLIGETI ÁRTÉZI KÚTAT
+MELY A KÖZELI FÜRDŐ VIZÉT SZOLGÁLTATJA
+A MARGITSZIGETI ÉS SZÁMOS VIDÉKI TERMÁLVIZ
+FELSZINRE HOZÁSA IS AZ Ő ALKOTÁSA
+ÁLLITATTA BUDAPEST FŐVÁROS KÖZÖNSÉGE 1895
+SZÉCSI ANTAL SZOBRÁSZMŰVÉSZ</t>
+  </si>
+  <si>
+    <t>KONRAD ADENAUER
+1876-1967
+Juka Richárd 2015</t>
+  </si>
+  <si>
+    <t>faragott kő oszlopok Vajdahunyad vár körül</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melyik a kakukk tojás? A: Repülő, B: Léghajó,  C: Vasút, D: Villamos, E: Kocsi </t>
+  </si>
+  <si>
+    <t>18 betű összesen</t>
+  </si>
+  <si>
+    <t>47.51394575207966</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19.090448749459878</t>
+  </si>
+  <si>
+    <t>47.50964715399549</t>
+  </si>
+  <si>
+    <t>19.089044065784783</t>
+  </si>
+  <si>
+    <t>47.5111305923138</t>
+  </si>
+  <si>
+    <t>19.08914443068096</t>
+  </si>
+  <si>
+    <t>47.51132475871464</t>
+  </si>
+  <si>
+    <t>19.09035041267371</t>
+  </si>
+  <si>
+    <t>47.51171008382211</t>
+  </si>
+  <si>
+    <t>19.08938773835912</t>
+  </si>
+  <si>
+    <t>47.51203951240516</t>
+  </si>
+  <si>
+    <t>19.08798691937953</t>
+  </si>
+  <si>
+    <t>47.51180779489737</t>
+  </si>
+  <si>
+    <t>19.086607331422453</t>
+  </si>
+  <si>
+    <t>47.512335368918485</t>
+  </si>
+  <si>
+    <t>19.08720240328311</t>
+  </si>
+  <si>
+    <t>47.51261944311729</t>
+  </si>
+  <si>
+    <t>19.088196501923353</t>
+  </si>
+  <si>
+    <t>47.512855564737244</t>
+  </si>
+  <si>
+    <t>19.089770980011785</t>
+  </si>
+  <si>
+    <t>47.51286209417947</t>
+  </si>
+  <si>
+    <t>19.089772463790624</t>
+  </si>
+  <si>
+    <t>47.512868350458774</t>
+  </si>
+  <si>
+    <t>19.090317018082697</t>
+  </si>
+  <si>
+    <t>47.51308025994239</t>
+  </si>
+  <si>
+    <t>19.091850976220208</t>
+  </si>
+  <si>
+    <t>47.51253195578078</t>
+  </si>
+  <si>
+    <t>19.09047609565283</t>
+  </si>
+  <si>
+    <t>47.512618212414864</t>
+  </si>
+  <si>
+    <t>19.080275622408585</t>
+  </si>
+  <si>
+    <t>47.51069362662582</t>
+  </si>
+  <si>
+    <t>19.082394206165677</t>
+  </si>
+  <si>
+    <t>47.51267020729346</t>
+  </si>
+  <si>
+    <t>19.082469180693536</t>
+  </si>
+  <si>
+    <t>47.51270190390724</t>
+  </si>
+  <si>
+    <t>19.08236160854652</t>
+  </si>
+  <si>
+    <t>47.51270787026086</t>
+  </si>
+  <si>
+    <t>19.08219482613704</t>
+  </si>
+  <si>
+    <t>47.51287604227905</t>
+  </si>
+  <si>
+    <t>19.082969248574926</t>
+  </si>
+  <si>
+    <t>47.513375876586124</t>
+  </si>
+  <si>
+    <t>19.083004648083968</t>
+  </si>
+  <si>
+    <t>47.51414424197708</t>
+  </si>
+  <si>
+    <t>19.083439070218486</t>
+  </si>
+  <si>
+    <t>47.51460199575381</t>
+  </si>
+  <si>
+    <t>19.082961721828976</t>
+  </si>
+  <si>
+    <t>47.51472077181524</t>
+  </si>
+  <si>
+    <t>19.082387756214796</t>
+  </si>
+  <si>
+    <t>47.514631577884685</t>
+  </si>
+  <si>
+    <t>19.083462472356814</t>
+  </si>
+  <si>
+    <t>47.514711445630795</t>
+  </si>
+  <si>
+    <t>19.083590822727636</t>
+  </si>
+  <si>
+    <t>47.514899082004604</t>
+  </si>
+  <si>
+    <t>19.083657396312024</t>
+  </si>
+  <si>
+    <t>47.51491557660079</t>
+  </si>
+  <si>
+    <t>19.083658473859828</t>
+  </si>
+  <si>
+    <t>47.515078743144336</t>
+  </si>
+  <si>
+    <t>19.0836526820893</t>
+  </si>
+  <si>
+    <t>47.51530767298938</t>
+  </si>
+  <si>
+    <t>19.08363113502084</t>
+  </si>
+  <si>
+    <t>47.51532791465193</t>
+  </si>
+  <si>
+    <t>19.083164617267407</t>
+  </si>
+  <si>
+    <t>47.515533664719655</t>
+  </si>
+  <si>
+    <t>19.082588038828984</t>
+  </si>
+  <si>
+    <t>47.51552519057577</t>
+  </si>
+  <si>
+    <t>19.082435258663025</t>
+  </si>
+  <si>
+    <t>47.51593701274882</t>
+  </si>
+  <si>
+    <t>19.08167756123838</t>
+  </si>
+  <si>
+    <t>47.516256665514426</t>
+  </si>
+  <si>
+    <t>19.081339899142897</t>
+  </si>
+  <si>
+    <t>47.51708869805347</t>
+  </si>
+  <si>
+    <t>19.082792154383963</t>
+  </si>
+  <si>
+    <t>47.51731070051449</t>
+  </si>
+  <si>
+    <t>19.08316810421919</t>
+  </si>
+  <si>
+    <t>47.51662243584018</t>
+  </si>
+  <si>
+    <t>19.083466354877086</t>
+  </si>
+  <si>
+    <t>47.515815177395986</t>
+  </si>
+  <si>
+    <t>19.084393088352698</t>
+  </si>
+  <si>
+    <t>47.512951814806314</t>
+  </si>
+  <si>
+    <t>19.089915183266914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milán, Elek, Zoltán jól nézd meg mind a három szobrot. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add össze az ÖSSZES évszámot amit ezen a három szobron megtalálsz, majd az eredmény számjegyeinek összege mutat egy betűre az Angol ABC-ben. Melyik ez a betű? </t>
+  </si>
+  <si>
+    <t>Ne csak a szobrok elejét figyeld.</t>
+  </si>
+  <si>
+    <t>Illyés Antal 2011-ben készítette Benedek Elek szobrát.</t>
+  </si>
+  <si>
+    <t>Születési évének számjegyeit összeadva az Angol ABC egy betűjét adja.</t>
+  </si>
+  <si>
+    <t>Anna élt éveinek számát elosztjuk kettővel és ez a szám adja meg az idézet egyik betűjét.</t>
+  </si>
+  <si>
+    <t>Magyar idézetet nézd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mennyi vízköpő fúvóka található a szökőkút aljában? Ennek a számnak add össze a számjegyeit ami a Magyar ÁBC egyik betűjére mutat. </t>
+  </si>
+  <si>
+    <t>Majdnem kerek szám.</t>
+  </si>
+  <si>
+    <t>50-nél kevesebb</t>
+  </si>
+  <si>
+    <t>Megélt életének számjegyiet add össze és az emlék mondat ezen bejűje a kód.</t>
+  </si>
+  <si>
+    <t>59 évet élt 5+9</t>
+  </si>
+  <si>
+    <t>A BÉKE ÉS A HALADÁS HARCOSA</t>
+  </si>
+  <si>
+    <t>Számold össze az összes betűt amit a szobron találsz és adj hozzá 1-et. Ez a szám megad egy betűt a Magyar ÁBC-ben. Melyik ez a betű?</t>
+  </si>
+  <si>
+    <t>Nézd meg minden oldalát.</t>
+  </si>
+  <si>
+    <t>Van a művész és aki öntötte.</t>
+  </si>
+  <si>
+    <t>Második sor végén.</t>
+  </si>
+  <si>
+    <t>ATBÁSGRÁ</t>
+  </si>
+  <si>
+    <t>BARÁTSÁG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melyik betűből van a legtöbb a szövegben?    ? + ' =  </t>
+  </si>
+  <si>
+    <t>Az egyik betű hosszú ékezettel ellátott változata.</t>
+  </si>
+  <si>
+    <t>1828 = 19</t>
+  </si>
+  <si>
+    <t>A 20. betű a T</t>
+  </si>
+  <si>
+    <t>Az első hosszú magánhangzó.</t>
   </si>
 </sst>
 </file>
@@ -5107,12 +5598,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5127,7 +5624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5137,6 +5634,17 @@
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5359,9 +5867,9 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6150,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>1596</v>
+        <v>1573</v>
       </c>
       <c r="G25" t="s">
         <v>1564</v>
@@ -6159,7 +6667,7 @@
         <v>1565</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>1597</v>
+        <v>1574</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>1566</v>
@@ -6178,22 +6686,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J257"/>
+  <dimension ref="A1:J256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I256" sqref="I256"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I252" sqref="I252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="32.88671875" customWidth="1"/>
     <col min="7" max="7" width="26.77734375" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
     <col min="9" max="9" width="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.8">
@@ -13222,222 +13732,272 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A246" s="3" t="s">
+    <row r="246" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A246" s="8" t="s">
         <v>1562</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="9">
         <v>1</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="9" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G246" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H246" s="9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I246" s="9" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J246" s="9" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A247" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B247" s="9">
+        <v>2</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F247" s="11" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G247" s="8" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H247" s="8" t="s">
+        <v>1719</v>
+      </c>
+      <c r="I247" s="8" t="s">
+        <v>1720</v>
+      </c>
+      <c r="J247" s="9" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A248" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B248" s="9">
+        <v>3</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F248" s="10" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G248" s="8" t="s">
+        <v>1709</v>
+      </c>
+      <c r="H248" s="8" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I248" s="8" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J248" s="8" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A249" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B249" s="9">
+        <v>4</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F249" s="11" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G249" s="8" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H249" s="8" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I249" s="8" t="s">
+        <v>1717</v>
+      </c>
+      <c r="J249" s="8" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A250" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B250" s="9">
+        <v>5</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F250" s="11" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G250" s="8" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H250" s="8" t="s">
+        <v>1711</v>
+      </c>
+      <c r="I250" s="8" t="s">
+        <v>1721</v>
+      </c>
+      <c r="J250" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A251" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B251" s="9">
+        <v>6</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F251" s="11" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G251" s="8" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H251" s="8" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I251" s="8" t="s">
+        <v>1714</v>
+      </c>
+      <c r="J251" s="8" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A252" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B252" s="9">
+        <v>7</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F252" s="11" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G252" s="8" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H252" s="8" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I252" s="8" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J252" s="8" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A253" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B253" s="9">
+        <v>8</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G253" s="8" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H253" s="8" t="s">
+        <v>1707</v>
+      </c>
+      <c r="I253" s="8" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J253" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A254" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B254" s="9">
+        <v>9</v>
+      </c>
+      <c r="C254" s="9" t="s">
         <v>1568</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D254" s="9" t="s">
         <v>1569</v>
       </c>
-      <c r="G246" t="s">
-        <v>1591</v>
-      </c>
-      <c r="J246" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A247" s="3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B247">
-        <v>2</v>
-      </c>
-      <c r="C247" t="s">
+      <c r="F254" s="9" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G254" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="H254" s="8" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I254" s="9" t="s">
         <v>1570</v>
       </c>
-      <c r="D247" t="s">
-        <v>1571</v>
-      </c>
-      <c r="F247" s="4"/>
-      <c r="G247" t="s">
-        <v>1400</v>
-      </c>
-      <c r="J247" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A248" s="3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B248">
-        <v>3</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D248" t="s">
-        <v>1573</v>
-      </c>
-      <c r="G248" t="s">
-        <v>1593</v>
-      </c>
-      <c r="J248" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A249" s="3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B249">
-        <v>4</v>
-      </c>
-      <c r="C249" t="s">
-        <v>1574</v>
-      </c>
-      <c r="D249" t="s">
-        <v>1575</v>
-      </c>
-      <c r="F249" s="4"/>
-      <c r="G249" t="s">
-        <v>29</v>
-      </c>
-      <c r="J249" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A250" s="3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B250">
-        <v>5</v>
-      </c>
-      <c r="C250" t="s">
-        <v>1576</v>
-      </c>
-      <c r="D250" t="s">
-        <v>1577</v>
-      </c>
-      <c r="G250" t="s">
-        <v>1403</v>
-      </c>
-      <c r="J250" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A251" s="3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B251">
-        <v>6</v>
-      </c>
-      <c r="C251" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D251" t="s">
-        <v>1579</v>
-      </c>
-      <c r="G251" t="s">
-        <v>1592</v>
-      </c>
-      <c r="J251" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A252" s="3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B252">
-        <v>7</v>
-      </c>
-      <c r="C252" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D252" t="s">
-        <v>1581</v>
-      </c>
-      <c r="G252" t="s">
-        <v>1116</v>
-      </c>
-      <c r="J252" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A253" s="3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B253">
-        <v>8</v>
-      </c>
-      <c r="C253" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D253" t="s">
-        <v>1583</v>
-      </c>
-      <c r="G253" t="s">
-        <v>27</v>
-      </c>
-      <c r="J253" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A254" s="3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B254">
-        <v>9</v>
-      </c>
-      <c r="C254" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D254" t="s">
-        <v>1585</v>
-      </c>
-      <c r="G254" t="s">
-        <v>1403</v>
-      </c>
-      <c r="J254" t="s">
-        <v>1403</v>
+      <c r="J254" s="8" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A255" s="3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B255">
-        <v>10</v>
-      </c>
-      <c r="C255" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D255" t="s">
-        <v>1587</v>
-      </c>
-      <c r="F255" t="s">
-        <v>1590</v>
-      </c>
-      <c r="G255" t="s">
-        <v>1594</v>
-      </c>
-      <c r="H255" t="s">
-        <v>1595</v>
-      </c>
-      <c r="I255" t="s">
-        <v>1589</v>
-      </c>
-      <c r="J255" t="s">
-        <v>1588</v>
-      </c>
+      <c r="A255" s="3"/>
     </row>
     <row r="256" spans="1:10" ht="15.75" customHeight="1">
       <c r="A256" s="3"/>
-    </row>
-    <row r="257" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A257" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J138" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
@@ -13446,4 +14006,495 @@
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 C2 General</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF58312A-2ADC-4D17-A148-2EF250A9448A}">
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="70" defaultRowHeight="19.2" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A1" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A5" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A6" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A7" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A8" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A9" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A10" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A11" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A12" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A13" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A14" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A16" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A17" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A18" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A19" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A20" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A21" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A22" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A23" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A24" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A25" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A26" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A27" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A28" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A29" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A30" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A31" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A32" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.2" customHeight="1">
+      <c r="A33" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19.2" customHeight="1">
+      <c r="A34" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19.2" customHeight="1">
+      <c r="A35" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19.2" customHeight="1">
+      <c r="A36" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="19.2" customHeight="1">
+      <c r="A37" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19.2" customHeight="1">
+      <c r="A38" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19.2" customHeight="1">
+      <c r="A39" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19.2" customHeight="1">
+      <c r="A40" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19.2" customHeight="1">
+      <c r="A41" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E28:E31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/games/games_full.xlsx
+++ b/games/games_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1065" documentId="14_{6D531364-793C-4225-BA75-A73EE9BFE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B59C6988-9CF4-4FCE-B340-082027328CD4}"/>
+  <xr:revisionPtr revIDLastSave="1078" documentId="14_{6D531364-793C-4225-BA75-A73EE9BFE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE0467E4-B583-445E-ADD5-A8E6D56305B6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="1729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="1735">
   <si>
     <t>id</t>
   </si>
@@ -5563,6 +5563,25 @@
   </si>
   <si>
     <t>Az első hosszú magánhangzó.</t>
+  </si>
+  <si>
+    <t>47.511936548748345</t>
+  </si>
+  <si>
+    <t>19.087937581405185</t>
+  </si>
+  <si>
+    <t>Bármilyen csapat fotó megfelel.</t>
+  </si>
+  <si>
+    <t>Mindenki legyen rajta.</t>
+  </si>
+  <si>
+    <t>Csináljatok egy közös cspat képet a Millenium Háza bejáratánál.
+Ha megvan csak írd be hogy: KÉSZ</t>
+  </si>
+  <si>
+    <t>Kész</t>
   </si>
 </sst>
 </file>
@@ -5636,9 +5655,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5646,6 +5662,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6686,11 +6705,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J256"/>
+  <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I252" sqref="I252"/>
+      <selection pane="bottomLeft" activeCell="J255" sqref="J255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -13732,272 +13751,299 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="246" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A246" s="8" t="s">
+    <row r="246" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A246" s="7" t="s">
         <v>1562</v>
       </c>
-      <c r="B246" s="9">
+      <c r="B246" s="8">
         <v>1</v>
       </c>
-      <c r="C246" s="9" t="s">
+      <c r="C246" s="8" t="s">
         <v>1625</v>
       </c>
-      <c r="D246" s="9" t="s">
+      <c r="D246" s="8" t="s">
         <v>1626</v>
       </c>
-      <c r="F246" s="9" t="s">
+      <c r="F246" s="8" t="s">
         <v>1579</v>
       </c>
-      <c r="G246" s="9" t="s">
+      <c r="G246" s="8" t="s">
         <v>1623</v>
       </c>
-      <c r="H246" s="9" t="s">
+      <c r="H246" s="8" t="s">
         <v>1577</v>
       </c>
-      <c r="I246" s="9" t="s">
+      <c r="I246" s="8" t="s">
         <v>1578</v>
       </c>
-      <c r="J246" s="9" t="s">
+      <c r="J246" s="8" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="247" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A247" s="8" t="s">
+    <row r="247" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A247" s="7" t="s">
         <v>1562</v>
       </c>
-      <c r="B247" s="9">
+      <c r="B247" s="8">
         <v>2</v>
       </c>
-      <c r="C247" s="9" t="s">
+      <c r="C247" s="8" t="s">
         <v>1633</v>
       </c>
-      <c r="D247" s="9" t="s">
+      <c r="D247" s="8" t="s">
         <v>1634</v>
       </c>
-      <c r="F247" s="11" t="s">
+      <c r="F247" s="10" t="s">
         <v>1583</v>
       </c>
-      <c r="G247" s="8" t="s">
+      <c r="G247" s="7" t="s">
         <v>1718</v>
       </c>
-      <c r="H247" s="8" t="s">
+      <c r="H247" s="7" t="s">
         <v>1719</v>
       </c>
-      <c r="I247" s="8" t="s">
+      <c r="I247" s="7" t="s">
         <v>1720</v>
       </c>
-      <c r="J247" s="9" t="s">
+      <c r="J247" s="8" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="248" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A248" s="8" t="s">
+    <row r="248" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A248" s="7" t="s">
         <v>1562</v>
       </c>
-      <c r="B248" s="9">
+      <c r="B248" s="8">
         <v>3</v>
       </c>
-      <c r="C248" s="9" t="s">
+      <c r="C248" s="8" t="s">
         <v>1649</v>
       </c>
-      <c r="D248" s="9" t="s">
+      <c r="D248" s="8" t="s">
         <v>1650</v>
       </c>
-      <c r="F248" s="10" t="s">
+      <c r="F248" s="9" t="s">
         <v>1594</v>
       </c>
-      <c r="G248" s="8" t="s">
+      <c r="G248" s="7" t="s">
         <v>1709</v>
       </c>
-      <c r="H248" s="8" t="s">
+      <c r="H248" s="7" t="s">
         <v>1726</v>
       </c>
-      <c r="I248" s="8" t="s">
+      <c r="I248" s="7" t="s">
         <v>1727</v>
       </c>
-      <c r="J248" s="8" t="s">
+      <c r="J248" s="7" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="249" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A249" s="8" t="s">
+    <row r="249" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A249" s="7" t="s">
         <v>1562</v>
       </c>
-      <c r="B249" s="9">
+      <c r="B249" s="8">
         <v>4</v>
       </c>
-      <c r="C249" s="9" t="s">
+      <c r="C249" s="8" t="s">
         <v>1631</v>
       </c>
-      <c r="D249" s="9" t="s">
+      <c r="D249" s="8" t="s">
         <v>1632</v>
       </c>
-      <c r="F249" s="11" t="s">
+      <c r="F249" s="10" t="s">
         <v>1582</v>
       </c>
-      <c r="G249" s="8" t="s">
+      <c r="G249" s="7" t="s">
         <v>1715</v>
       </c>
-      <c r="H249" s="8" t="s">
+      <c r="H249" s="7" t="s">
         <v>1716</v>
       </c>
-      <c r="I249" s="8" t="s">
+      <c r="I249" s="7" t="s">
         <v>1717</v>
       </c>
-      <c r="J249" s="8" t="s">
+      <c r="J249" s="7" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="250" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A250" s="8" t="s">
+    <row r="250" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A250" s="7" t="s">
         <v>1562</v>
       </c>
-      <c r="B250" s="9">
+      <c r="B250" s="8">
         <v>5</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="C250" s="8" t="s">
         <v>1637</v>
       </c>
-      <c r="D250" s="9" t="s">
+      <c r="D250" s="8" t="s">
         <v>1638</v>
       </c>
-      <c r="F250" s="11" t="s">
+      <c r="F250" s="10" t="s">
         <v>1588</v>
       </c>
-      <c r="G250" s="8" t="s">
+      <c r="G250" s="7" t="s">
         <v>1710</v>
       </c>
-      <c r="H250" s="8" t="s">
+      <c r="H250" s="7" t="s">
         <v>1711</v>
       </c>
-      <c r="I250" s="8" t="s">
+      <c r="I250" s="7" t="s">
         <v>1721</v>
       </c>
-      <c r="J250" s="8" t="s">
+      <c r="J250" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A251" s="8" t="s">
+    <row r="251" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A251" s="7" t="s">
         <v>1562</v>
       </c>
-      <c r="B251" s="9">
+      <c r="B251" s="8">
         <v>6</v>
       </c>
-      <c r="C251" s="9" t="s">
+      <c r="C251" s="8" t="s">
         <v>1641</v>
       </c>
-      <c r="D251" s="9" t="s">
+      <c r="D251" s="8" t="s">
         <v>1642</v>
       </c>
-      <c r="F251" s="11" t="s">
+      <c r="F251" s="10" t="s">
         <v>1590</v>
       </c>
-      <c r="G251" s="8" t="s">
+      <c r="G251" s="7" t="s">
         <v>1712</v>
       </c>
-      <c r="H251" s="8" t="s">
+      <c r="H251" s="7" t="s">
         <v>1713</v>
       </c>
-      <c r="I251" s="8" t="s">
+      <c r="I251" s="7" t="s">
         <v>1714</v>
       </c>
-      <c r="J251" s="8" t="s">
+      <c r="J251" s="7" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="252" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A252" s="8" t="s">
+    <row r="252" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A252" s="7" t="s">
         <v>1562</v>
       </c>
-      <c r="B252" s="9">
+      <c r="B252" s="8">
         <v>7</v>
       </c>
-      <c r="C252" s="9" t="s">
+      <c r="C252" s="8" t="s">
         <v>1629</v>
       </c>
-      <c r="D252" s="9" t="s">
+      <c r="D252" s="8" t="s">
         <v>1630</v>
       </c>
-      <c r="F252" s="11" t="s">
+      <c r="F252" s="10" t="s">
         <v>1581</v>
       </c>
-      <c r="G252" s="8" t="s">
+      <c r="G252" s="7" t="s">
         <v>1724</v>
       </c>
-      <c r="H252" s="8" t="s">
+      <c r="H252" s="7" t="s">
         <v>1725</v>
       </c>
-      <c r="I252" s="8" t="s">
+      <c r="I252" s="7" t="s">
         <v>1728</v>
       </c>
-      <c r="J252" s="8" t="s">
+      <c r="J252" s="7" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="253" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A253" s="8" t="s">
+    <row r="253" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A253" s="7" t="s">
         <v>1562</v>
       </c>
-      <c r="B253" s="9">
+      <c r="B253" s="8">
         <v>8</v>
       </c>
-      <c r="C253" s="8" t="s">
+      <c r="C253" s="7" t="s">
         <v>1703</v>
       </c>
-      <c r="D253" s="9" t="s">
+      <c r="D253" s="8" t="s">
         <v>1704</v>
       </c>
-      <c r="F253" s="8" t="s">
+      <c r="F253" s="7" t="s">
         <v>1705</v>
       </c>
-      <c r="G253" s="8" t="s">
+      <c r="G253" s="7" t="s">
         <v>1706</v>
       </c>
-      <c r="H253" s="8" t="s">
+      <c r="H253" s="7" t="s">
         <v>1707</v>
       </c>
-      <c r="I253" s="8" t="s">
+      <c r="I253" s="7" t="s">
         <v>1708</v>
       </c>
-      <c r="J253" s="8" t="s">
+      <c r="J253" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A254" s="8" t="s">
+    <row r="254" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A254" s="7" t="s">
         <v>1562</v>
       </c>
-      <c r="B254" s="9">
+      <c r="B254" s="8">
         <v>9</v>
       </c>
-      <c r="C254" s="9" t="s">
+      <c r="C254" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F254" s="7"/>
+      <c r="G254" s="10" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H254" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I254" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="J254" s="7" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A255" s="7" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B255" s="8">
+        <v>10</v>
+      </c>
+      <c r="C255" s="8" t="s">
         <v>1568</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="D255" s="8" t="s">
         <v>1569</v>
       </c>
-      <c r="F254" s="9" t="s">
+      <c r="F255" s="8" t="s">
         <v>1576</v>
       </c>
-      <c r="G254" s="9" t="s">
+      <c r="G255" s="8" t="s">
         <v>1575</v>
       </c>
-      <c r="H254" s="8" t="s">
+      <c r="H255" s="7" t="s">
         <v>1722</v>
       </c>
-      <c r="I254" s="9" t="s">
+      <c r="I255" s="8" t="s">
         <v>1570</v>
       </c>
-      <c r="J254" s="8" t="s">
+      <c r="J255" s="7" t="s">
         <v>1723</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A255" s="3"/>
     </row>
     <row r="256" spans="1:10" ht="15.75" customHeight="1">
       <c r="A256" s="3"/>
+    </row>
+    <row r="257" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A257" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J138" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
@@ -14341,7 +14387,7 @@
       <c r="D28" s="4" t="s">
         <v>1608</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="11" t="s">
         <v>1612</v>
       </c>
     </row>
@@ -14355,7 +14401,7 @@
       <c r="D29" s="4" t="s">
         <v>1609</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" ht="19.2" customHeight="1">
       <c r="A30" t="s">
@@ -14367,7 +14413,7 @@
       <c r="D30" s="4" t="s">
         <v>1610</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" ht="19.2" customHeight="1">
       <c r="A31" t="s">
@@ -14379,7 +14425,7 @@
       <c r="D31" s="4" t="s">
         <v>1611</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" ht="19.2" customHeight="1">
       <c r="A32" t="s">

--- a/games/games_full.xlsx
+++ b/games/games_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1078" documentId="14_{6D531364-793C-4225-BA75-A73EE9BFE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE0467E4-B583-445E-ADD5-A8E6D56305B6}"/>
+  <xr:revisionPtr revIDLastSave="1090" documentId="14_{6D531364-793C-4225-BA75-A73EE9BFE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70DAE063-08DE-4C13-ACDD-604447ACDBD7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="1742">
   <si>
     <t>id</t>
   </si>
@@ -5018,9 +5018,6 @@
     <t>Az egyik nincs köztük.</t>
   </si>
   <si>
-    <t>Kresszpája</t>
-  </si>
-  <si>
     <t>Ocskay László
 magyar királyi honvéd százados emlékére, 
 aki 1944-1945 fordulóján több ezer magyar zsidó életét mentette meg.</t>
@@ -5493,12 +5490,6 @@
     <t>19.089915183266914</t>
   </si>
   <si>
-    <t xml:space="preserve">Milán, Elek, Zoltán jól nézd meg mind a három szobrot. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add össze az ÖSSZES évszámot amit ezen a három szobron megtalálsz, majd az eredmény számjegyeinek összege mutat egy betűre az Angol ABC-ben. Melyik ez a betű? </t>
-  </si>
-  <si>
     <t>Ne csak a szobrok elejét figyeld.</t>
   </si>
   <si>
@@ -5582,6 +5573,39 @@
   </si>
   <si>
     <t>Kész</t>
+  </si>
+  <si>
+    <t>A művet Liptóújvári Strobl Alajos (1856–1926) készítette, aki korának egyik legelismertebb magyar szobrásza volt. A kompozíció két fiatal lányt ábrázol, akik egy padon ülve elmélyülten olvasnak egy könyvet – a jelenet egyszerre sugároz nyugalmat, tudásvágyat és a barátság bensőségességét. Strobl mester finoman mintázta meg a lányok ruhájának redőit és a természetes, meghitt pózt, ami miatt a szobor rendkívül életszerű.
+Eredetileg 1912-ben készült, és azóta a Városliget egyik kedvelt találkozóhelyévé vált. A „lányok” csendes türelemmel figyelik a múló időt – száz éve is, ma is az olvasás és a barátság szimbólumai.</t>
+  </si>
+  <si>
+    <t>Lev Tolsztoj (1828–1910) orosz író, filozófus és humanista, a világirodalom egyik legnagyobb alakja. Leghíresebb művei, a Háború és béke és az Anna Karenina az emberi lélek mélységeit és az erkölcsi választások nehézségét mutatják be. Élete végén a béke, a szeretet és az egyszerű élet híveként a lelki megújulást és az erőszakmentességet hirdette.</t>
+  </si>
+  <si>
+    <t>Olof Palme (1927–1986) svéd politikus, miniszterelnök, a 20. századi európai szociáldemokrácia kiemelkedő alakja volt. Határozottan kiállt a társadalmi egyenlőség, a béke és az emberi jogok mellett, és gyakran bírálta a nagyhatalmak politikáját. 1986-ban merénylet áldozata lett Stockholm belvárosában – halála máig Svédország egyik legnagyobb politikai rejtélye.</t>
+  </si>
+  <si>
+    <t>Anna Lindh (1957–2003) svéd politikus, aki 1998-tól külügyminiszterként szolgált, és a nemzetközi együttműködés, emberi jogok és környezetvédelem elkötelezett híve volt. Fontos szerepet játszott Svédország európai uniós politikájának alakításában, és szenvedélyesen támogatta a békés konfliktusmegoldást. 2003-ban tragikus körülmények között, egy stockholmi merénylet során életét vesztette, ami megrázta az egész országot és a nemzetközi közvéleményt is.</t>
+  </si>
+  <si>
+    <t>A Zsolnay-díszkút a Városliget egyik különleges műalkotása, amelyet a híres pécsi Zsolnay-gyár készített a 19. század végén. A kút jellegzetes, színes pirogránit díszítése és gazdag ornamentikája a magyar szecesszió stílusát idézi. A díszkút nemcsak esztétikai értéke miatt különleges, hanem azért is, mert a Zsolnay család világhírű kerámiaművészetének egyik szimbolikus alkotása a főváros szívében.</t>
+  </si>
+  <si>
+    <t>Tompa Mihály (1817–1868) magyar költő, református lelkész, a 19. századi magyar irodalom kiemelkedő alakja volt. A szabadságharc idején verseivel a nemzeti összetartozást és a haza iránti hűséget hirdette. Költészetében gyakran keveredik a természet szépsége, a hit és a hazaszeretet — legismertebb művei közé tartozik A gólyához és A madár, fiaihoz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milán, Elek, Zoltán jól nézd meg mind a három szobrot. Add össze az ÖSSZES évszámot amit ezen a három szobron megtalálsz, majd az eredmény számjegyeinek összege mutat egy betűre az Angol ABC-ben. Melyik ez a betű? </t>
+  </si>
+  <si>
+    <t>Füst Milán  magyar író, költő és drámaíró, a modern magyar irodalom egyik legkülönlegesebb, filozofikus hangvételű alkotója. Műveiben az emberi lélek vívódásait, a magányt és az élet értelmét kutatta — legismertebb regénye a Feleségem története.
+Somlyó Zoltán magyar költő, író és újságíró, aki a 20. század eleji magyar líra egyik érzékeny, melankolikus hangú alkotója volt. Verseiben gyakran jelent meg a szerelem, a magány és az elmúlás motívuma – költészete finom líraiságával és őszinte érzelmeivel vált maradandóvá.
+Benedek Elek magyar író, újságíró, a „nagy mesemondóként” ismert, aki a magyar népmesekincs legnagyobb gyűjtője és feldolgozója volt. Munkásságával generációkat tanított a jóság, bátorság és igazság értékeire – legismertebb gyűjteménye a Magyar mese- és mondavilág.</t>
+  </si>
+  <si>
+    <t>A Millenium Háza a Városliget egyik legszebb, történelmi épülete, amelyet eredetileg az 1885-ös Országos Kiállításra építettek Olof Palme-ház néven. Az épület neoreneszánsz stílusban készült, Zsolnay kerámiadíszítéseivel és gazdag üvegfelületeivel a 19. századi magyar építészet remeke. Felújítása után ma modern kiállító- és rendezvénytérként működik, ahol a Liget történetét és Budapest kulturális örökségét mutatják be.</t>
+  </si>
+  <si>
+    <t>A Városligeti KRESZ-park Budapest egyik legrégebbi és legnépszerűbb gyerekeknek szóló közlekedési tanpályája. Az 1970-es években nyílt meg azzal a céllal, hogy a gyerekek játékos formában tanulhassák meg a közlekedés alapjait. A mini városban mindent megtalálni, ami az igazi forgalomban is van – közlekedési táblákat, zebrákat, lámpákat, sőt még kis benzinkutat is. Ma is kedvelt családi és iskolai programhelyszín, ahol a tanulás igazi élménnyé válik.</t>
   </si>
 </sst>
 </file>
@@ -5643,7 +5667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5657,9 +5681,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6707,9 +6728,9 @@
   </sheetPr>
   <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J255" sqref="J255"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F246" sqref="F246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -13759,16 +13780,16 @@
         <v>1</v>
       </c>
       <c r="C246" s="8" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D246" s="8" t="s">
         <v>1625</v>
       </c>
-      <c r="D246" s="8" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F246" s="8" t="s">
-        <v>1579</v>
+      <c r="F246" s="7" t="s">
+        <v>1741</v>
       </c>
       <c r="G246" s="8" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H246" s="8" t="s">
         <v>1577</v>
@@ -13788,22 +13809,22 @@
         <v>2</v>
       </c>
       <c r="C247" s="8" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D247" s="8" t="s">
         <v>1633</v>
       </c>
-      <c r="D247" s="8" t="s">
-        <v>1634</v>
-      </c>
-      <c r="F247" s="10" t="s">
-        <v>1583</v>
+      <c r="F247" s="9" t="s">
+        <v>1732</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="I247" s="7" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="J247" s="8" t="s">
         <v>1400</v>
@@ -13817,22 +13838,22 @@
         <v>3</v>
       </c>
       <c r="C248" s="8" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D248" s="8" t="s">
         <v>1649</v>
       </c>
-      <c r="D248" s="8" t="s">
-        <v>1650</v>
-      </c>
       <c r="F248" s="9" t="s">
-        <v>1594</v>
+        <v>1733</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="I248" s="7" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="J248" s="7" t="s">
         <v>1572</v>
@@ -13846,22 +13867,22 @@
         <v>4</v>
       </c>
       <c r="C249" s="8" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D249" s="8" t="s">
         <v>1631</v>
       </c>
-      <c r="D249" s="8" t="s">
-        <v>1632</v>
-      </c>
-      <c r="F249" s="10" t="s">
-        <v>1582</v>
+      <c r="F249" s="9" t="s">
+        <v>1734</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="I249" s="7" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="J249" s="7" t="s">
         <v>1403</v>
@@ -13875,22 +13896,22 @@
         <v>5</v>
       </c>
       <c r="C250" s="8" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D250" s="8" t="s">
         <v>1637</v>
       </c>
-      <c r="D250" s="8" t="s">
-        <v>1638</v>
-      </c>
-      <c r="F250" s="10" t="s">
-        <v>1588</v>
+      <c r="F250" s="9" t="s">
+        <v>1735</v>
       </c>
       <c r="G250" s="7" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="H250" s="7" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="I250" s="7" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="J250" s="7" t="s">
         <v>29</v>
@@ -13904,22 +13925,22 @@
         <v>6</v>
       </c>
       <c r="C251" s="8" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D251" s="8" t="s">
         <v>1641</v>
       </c>
-      <c r="D251" s="8" t="s">
-        <v>1642</v>
-      </c>
-      <c r="F251" s="10" t="s">
-        <v>1590</v>
+      <c r="F251" s="9" t="s">
+        <v>1736</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="I251" s="7" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="J251" s="7" t="s">
         <v>1116</v>
@@ -13933,22 +13954,22 @@
         <v>7</v>
       </c>
       <c r="C252" s="8" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D252" s="8" t="s">
         <v>1629</v>
       </c>
-      <c r="D252" s="8" t="s">
-        <v>1630</v>
-      </c>
-      <c r="F252" s="10" t="s">
-        <v>1581</v>
+      <c r="F252" s="9" t="s">
+        <v>1737</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="H252" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I252" s="7" t="s">
         <v>1725</v>
-      </c>
-      <c r="I252" s="7" t="s">
-        <v>1728</v>
       </c>
       <c r="J252" s="7" t="s">
         <v>1403</v>
@@ -13962,22 +13983,22 @@
         <v>8</v>
       </c>
       <c r="C253" s="7" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D253" s="8" t="s">
         <v>1703</v>
       </c>
-      <c r="D253" s="8" t="s">
+      <c r="F253" s="9" t="s">
+        <v>1739</v>
+      </c>
+      <c r="G253" s="7" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H253" s="7" t="s">
         <v>1704</v>
       </c>
-      <c r="F253" s="7" t="s">
+      <c r="I253" s="7" t="s">
         <v>1705</v>
-      </c>
-      <c r="G253" s="7" t="s">
-        <v>1706</v>
-      </c>
-      <c r="H253" s="7" t="s">
-        <v>1707</v>
-      </c>
-      <c r="I253" s="7" t="s">
-        <v>1708</v>
       </c>
       <c r="J253" s="7" t="s">
         <v>27</v>
@@ -13991,23 +14012,25 @@
         <v>9</v>
       </c>
       <c r="C254" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F254" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G254" s="9" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H254" s="7" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I254" s="7" t="s">
         <v>1729</v>
       </c>
-      <c r="D254" s="8" t="s">
-        <v>1730</v>
-      </c>
-      <c r="F254" s="7"/>
-      <c r="G254" s="10" t="s">
-        <v>1733</v>
-      </c>
-      <c r="H254" s="7" t="s">
+      <c r="J254" s="7" t="s">
         <v>1731</v>
-      </c>
-      <c r="I254" s="7" t="s">
-        <v>1732</v>
-      </c>
-      <c r="J254" s="7" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="255" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -14030,13 +14053,13 @@
         <v>1575</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="I255" s="8" t="s">
         <v>1570</v>
       </c>
       <c r="J255" s="7" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="15.75" customHeight="1">
@@ -14075,74 +14098,74 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.2" customHeight="1">
       <c r="A1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.2" customHeight="1">
       <c r="A2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B2" t="s">
         <v>1627</v>
       </c>
-      <c r="B2" t="s">
-        <v>1628</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.2" customHeight="1">
       <c r="A3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B3" t="s">
         <v>1629</v>
       </c>
-      <c r="B3" t="s">
-        <v>1630</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.2" customHeight="1">
       <c r="A4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B4" t="s">
         <v>1631</v>
       </c>
-      <c r="B4" t="s">
-        <v>1632</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.2" customHeight="1">
       <c r="A5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B5" t="s">
         <v>1633</v>
       </c>
-      <c r="B5" t="s">
-        <v>1634</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E5" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.2" customHeight="1">
       <c r="A6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B6" t="s">
         <v>1635</v>
       </c>
-      <c r="B6" t="s">
-        <v>1636</v>
-      </c>
       <c r="D6" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F6" t="s">
         <v>1584</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>1585</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1586</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -14150,391 +14173,391 @@
     </row>
     <row r="7" spans="1:8" ht="19.2" customHeight="1">
       <c r="A7" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B7" t="s">
         <v>1637</v>
       </c>
-      <c r="B7" t="s">
-        <v>1638</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.2" customHeight="1">
       <c r="A8" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B8" t="s">
         <v>1639</v>
       </c>
-      <c r="B8" t="s">
-        <v>1640</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.2" customHeight="1">
       <c r="A9" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B9" t="s">
         <v>1641</v>
       </c>
-      <c r="B9" t="s">
-        <v>1642</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.2" customHeight="1">
       <c r="A10" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B10" t="s">
         <v>1643</v>
       </c>
-      <c r="B10" t="s">
-        <v>1644</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.2" customHeight="1">
       <c r="A11" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B11" t="s">
         <v>1645</v>
       </c>
-      <c r="B11" t="s">
-        <v>1646</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.2" customHeight="1">
       <c r="A12" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B12" t="s">
         <v>1647</v>
       </c>
-      <c r="B12" t="s">
-        <v>1648</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.2" customHeight="1">
       <c r="A13" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B13" t="s">
         <v>1649</v>
       </c>
-      <c r="B13" t="s">
-        <v>1650</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.2" customHeight="1">
       <c r="A14" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B14" t="s">
         <v>1651</v>
       </c>
-      <c r="B14" t="s">
-        <v>1652</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.2" customHeight="1">
       <c r="A16" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.2" customHeight="1">
       <c r="A17" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B17" t="s">
         <v>1653</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1654</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.2" customHeight="1">
       <c r="A18" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B18" t="s">
         <v>1655</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1656</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.2" customHeight="1">
       <c r="A19" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B19" t="s">
         <v>1657</v>
       </c>
-      <c r="B19" t="s">
-        <v>1658</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.2" customHeight="1">
       <c r="A20" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B20" t="s">
         <v>1659</v>
       </c>
-      <c r="B20" t="s">
-        <v>1660</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.2" customHeight="1">
       <c r="A21" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B21" t="s">
         <v>1661</v>
       </c>
-      <c r="B21" t="s">
-        <v>1662</v>
-      </c>
       <c r="D21" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19.2" customHeight="1">
       <c r="A22" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B22" t="s">
         <v>1663</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1664</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19.2" customHeight="1">
       <c r="A23" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B23" t="s">
         <v>1665</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1666</v>
       </c>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19.2" customHeight="1">
       <c r="A24" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B24" t="s">
         <v>1667</v>
       </c>
-      <c r="B24" t="s">
-        <v>1668</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.2" customHeight="1">
       <c r="A25" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B25" t="s">
         <v>1669</v>
       </c>
-      <c r="B25" t="s">
-        <v>1670</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.2" customHeight="1">
       <c r="A26" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B26" t="s">
         <v>1671</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1672</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.2" customHeight="1">
       <c r="A27" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B27" t="s">
         <v>1673</v>
       </c>
-      <c r="B27" t="s">
-        <v>1674</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19.2" customHeight="1">
       <c r="A28" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B28" t="s">
         <v>1675</v>
       </c>
-      <c r="B28" t="s">
-        <v>1676</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>1612</v>
+        <v>1607</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>1611</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.2" customHeight="1">
       <c r="A29" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B29" t="s">
         <v>1677</v>
       </c>
-      <c r="B29" t="s">
-        <v>1678</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E29" s="11"/>
+        <v>1608</v>
+      </c>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" ht="19.2" customHeight="1">
       <c r="A30" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B30" t="s">
         <v>1679</v>
       </c>
-      <c r="B30" t="s">
-        <v>1680</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E30" s="11"/>
+        <v>1609</v>
+      </c>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" ht="19.2" customHeight="1">
       <c r="A31" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B31" t="s">
         <v>1681</v>
       </c>
-      <c r="B31" t="s">
-        <v>1682</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E31" s="11"/>
+        <v>1610</v>
+      </c>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" ht="19.2" customHeight="1">
       <c r="A32" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B32" t="s">
         <v>1683</v>
       </c>
-      <c r="B32" t="s">
-        <v>1684</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.2" customHeight="1">
       <c r="A33" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B33" t="s">
         <v>1685</v>
       </c>
-      <c r="B33" t="s">
-        <v>1686</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.2" customHeight="1">
       <c r="A34" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B34" t="s">
         <v>1687</v>
       </c>
-      <c r="B34" t="s">
-        <v>1688</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.2" customHeight="1">
       <c r="A35" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B35" t="s">
         <v>1689</v>
       </c>
-      <c r="B35" t="s">
-        <v>1690</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.2" customHeight="1">
       <c r="A36" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B36" t="s">
         <v>1691</v>
       </c>
-      <c r="B36" t="s">
-        <v>1692</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="19.2" customHeight="1">
       <c r="A37" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B37" t="s">
         <v>1693</v>
       </c>
-      <c r="B37" t="s">
-        <v>1694</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.2" customHeight="1">
       <c r="A38" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B38" t="s">
         <v>1695</v>
       </c>
-      <c r="B38" t="s">
-        <v>1696</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.2" customHeight="1">
       <c r="A39" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B39" t="s">
         <v>1697</v>
       </c>
-      <c r="B39" t="s">
-        <v>1698</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1">
       <c r="A40" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B40" t="s">
         <v>1699</v>
       </c>
-      <c r="B40" t="s">
-        <v>1700</v>
-      </c>
       <c r="D40" s="4" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.2" customHeight="1">
       <c r="A41" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B41" t="s">
         <v>1701</v>
       </c>
-      <c r="B41" t="s">
-        <v>1702</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_full.xlsx
+++ b/games/games_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1090" documentId="14_{6D531364-793C-4225-BA75-A73EE9BFE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70DAE063-08DE-4C13-ACDD-604447ACDBD7}"/>
+  <xr:revisionPtr revIDLastSave="1100" documentId="14_{6D531364-793C-4225-BA75-A73EE9BFE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88BB8139-8B02-420F-92FB-06647942DD87}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="1742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="1742">
   <si>
     <t>id</t>
   </si>
@@ -4969,12 +4969,6 @@
     <t>12+</t>
   </si>
   <si>
-    <t>47.510945856107455</t>
-  </si>
-  <si>
-    <t>19.090889227870335</t>
-  </si>
-  <si>
     <t>thumbnails\varosliget.png</t>
   </si>
   <si>
@@ -4994,19 +4988,6 @@
   </si>
   <si>
     <t>S</t>
-  </si>
-  <si>
-    <t>Egy napsütéses tavaszi napon a 8.B osztály izgatottan érkezett meg a Városligetbe. Azt hitték, csak egy egyszerű osztálykirándulás lesz, amíg Ritanéni elő nem húzott egy régi, megsárgult térképet. A térképen furcsa jelek és számok voltak, és a sarkában egy titokzatos felirat: „Aki mind a tíz titkot feltárja, megismeri a Liget őrzőjének rejtett üzenetét.”
-A csapatok gyorsan megalakultak – és kezdetét vette a kaland. A cél: felfedni a Városliget tíz titkát, és megfejteni a végső üzenetet, mielőtt lemegy a nap. -Jól jegyezzétek meg mindegyik feladat megoldását a végén szükség lesz rá.-</t>
-  </si>
-  <si>
-    <t>A nap lassan lebukott a fák mögött, amikor a csapatok a rét közepén újra összeértek. A tíz titokból összeállt az üzenet:
-„A barátság az, ami minden kalandnál tovább tart.”
-Nevetve, fáradtan, de büszkén néztek egymásra – mindannyian tudták, hogy most már nemcsak egy osztály, hanem egy igazi csapat lettek.
-A Városliget titka feltárult – de talán maradt benne még egy-két rejtély a következő kirándulásra is…</t>
-  </si>
-  <si>
-    <t>Vajon mit üzen a Liget nektek?</t>
   </si>
   <si>
     <t>A térkép utolsó jele itt található egy nagy füves domb tetején. Ha mind a kilenc titkot megfejtettétek, itt vár az utolsó kihívás. Rakjátok össze a kilenc helyszínen szerzett jeleket –  az anagrammából egy szó adja meg az őrző üzenetét.</t>
@@ -5606,6 +5587,25 @@
   </si>
   <si>
     <t>A Városligeti KRESZ-park Budapest egyik legrégebbi és legnépszerűbb gyerekeknek szóló közlekedési tanpályája. Az 1970-es években nyílt meg azzal a céllal, hogy a gyerekek játékos formában tanulhassák meg a közlekedés alapjait. A mini városban mindent megtalálni, ami az igazi forgalomban is van – közlekedési táblákat, zebrákat, lámpákat, sőt még kis benzinkutat is. Ma is kedvelt családi és iskolai programhelyszín, ahol a tanulás igazi élménnyé válik.</t>
+  </si>
+  <si>
+    <t>47.51100049142039</t>
+  </si>
+  <si>
+    <t>19.090783357976676</t>
+  </si>
+  <si>
+    <t>Vajon mit üzen a Liget nektek? (ugye megjegyeztétek a 9 betűt?)</t>
+  </si>
+  <si>
+    <t>Egy napsütéses tavaszi napon a 8.B osztály izgatottan érkezett meg a Városligetbe. Azt hitték, csak egy egyszerű osztálykirándulás lesz, amíg Ritanéni elő nem húzott egy régi, megsárgult térképet. A térképen furcsa jelek és számok voltak, és a sarkában egy titokzatos felirat: „Aki mind a 9 titkot feltárja, megismeri a Liget őrzőjének rejtett üzenetét.”
+A csapatok gyorsan megalakultak – és kezdetét vette a kaland. A cél: felfedni a Városliget 9 titkát, és megfejteni a végső üzenetet, mielőtt lemegy a nap. -Jól jegyezzétek meg mindegyik feladat megoldását a végén szükség lesz rá.-</t>
+  </si>
+  <si>
+    <t>A nap lassan lebukott a fák mögött, amikor a csapatok a rét közepén újra összeértek. A 9 titokból összeállt az üzenet:
+„A barátság az, ami minden kalandnál tovább tart.”
+Nevetve, fáradtan, de büszkén néztek egymásra – mindannyian tudták, hogy most már nemcsak egy osztály, hanem egy igazi csapat lettetek.
+A Városliget titka feltárult – de talán maradt benne még egy-két rejtély a következő kirándulásra is…</t>
   </si>
 </sst>
 </file>
@@ -5905,11 +5905,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5921,12 +5921,13 @@
     <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.44140625" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="40.44140625" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.8">
+    <row r="1" spans="1:13" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5952,15 +5953,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1187</v>
       </c>
@@ -5985,14 +5989,14 @@
       <c r="H2" t="s">
         <v>1470</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>1189</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1071</v>
       </c>
@@ -6017,14 +6021,14 @@
       <c r="H3" t="s">
         <v>1474</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>1075</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>1300</v>
       </c>
@@ -6049,14 +6053,14 @@
       <c r="H4" t="s">
         <v>1477</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>1318</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -6081,14 +6085,14 @@
       <c r="H5" t="s">
         <v>1479</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>1492</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>574</v>
       </c>
@@ -6113,11 +6117,11 @@
       <c r="H6" t="s">
         <v>577</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>103</v>
       </c>
@@ -6142,14 +6146,14 @@
       <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>107</v>
       </c>
@@ -6174,14 +6178,14 @@
       <c r="H8" t="s">
         <v>110</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>106</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>163</v>
       </c>
@@ -6206,11 +6210,11 @@
       <c r="H9" t="s">
         <v>191</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>209</v>
       </c>
@@ -6235,11 +6239,11 @@
       <c r="H10" t="s">
         <v>237</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>256</v>
       </c>
@@ -6264,11 +6268,11 @@
       <c r="H11" t="s">
         <v>261</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>320</v>
       </c>
@@ -6293,14 +6297,14 @@
       <c r="H12" t="s">
         <v>325</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>323</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>385</v>
       </c>
@@ -6325,14 +6329,14 @@
       <c r="H13" t="s">
         <v>389</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>390</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>447</v>
       </c>
@@ -6357,14 +6361,14 @@
       <c r="H14" t="s">
         <v>452</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>450</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>510</v>
       </c>
@@ -6389,14 +6393,14 @@
       <c r="H15" t="s">
         <v>514</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>515</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>645</v>
       </c>
@@ -6421,11 +6425,11 @@
       <c r="H16" t="s">
         <v>650</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>872</v>
       </c>
@@ -6450,14 +6454,14 @@
       <c r="H17" t="s">
         <v>870</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>897</v>
       </c>
@@ -6482,14 +6486,14 @@
       <c r="H18" t="s">
         <v>920</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>931</v>
       </c>
@@ -6514,14 +6518,14 @@
       <c r="H19" t="s">
         <v>934</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>1076</v>
       </c>
@@ -6546,14 +6550,14 @@
       <c r="H20" t="s">
         <v>1080</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>1081</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>1082</v>
       </c>
@@ -6578,14 +6582,14 @@
       <c r="H21" t="s">
         <v>1086</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>1087</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>1278</v>
       </c>
@@ -6610,14 +6614,14 @@
       <c r="H22" t="s">
         <v>1280</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="J22" s="6" t="s">
         <v>1293</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>1429</v>
       </c>
@@ -6642,14 +6646,14 @@
       <c r="H23" t="s">
         <v>1432</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>1512</v>
       </c>
@@ -6674,14 +6678,14 @@
       <c r="H24" t="s">
         <v>1516</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>1517</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>1562</v>
       </c>
@@ -6689,7 +6693,7 @@
         <v>158</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>1563</v>
@@ -6697,20 +6701,23 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>1573</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" s="6" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="I25" s="3">
+        <v>10</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>1564</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1565</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>1574</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>1566</v>
       </c>
     </row>
   </sheetData>
@@ -6728,9 +6735,9 @@
   </sheetPr>
   <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F246" sqref="F246"/>
+      <selection pane="bottomLeft" activeCell="G255" sqref="G255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -13780,25 +13787,25 @@
         <v>1</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="G246" s="8" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="H246" s="8" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="I246" s="8" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="J246" s="8" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="247" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -13809,22 +13816,22 @@
         <v>2</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
       <c r="I247" s="7" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="J247" s="8" t="s">
         <v>1400</v>
@@ -13838,25 +13845,25 @@
         <v>3</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="F248" s="9" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="I248" s="7" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="J248" s="7" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="249" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -13867,22 +13874,22 @@
         <v>4</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="F249" s="9" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="I249" s="7" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="J249" s="7" t="s">
         <v>1403</v>
@@ -13896,22 +13903,22 @@
         <v>5</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="F250" s="9" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="G250" s="7" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="H250" s="7" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="I250" s="7" t="s">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="J250" s="7" t="s">
         <v>29</v>
@@ -13925,22 +13932,22 @@
         <v>6</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="F251" s="9" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="I251" s="7" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="J251" s="7" t="s">
         <v>1116</v>
@@ -13954,22 +13961,22 @@
         <v>7</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="F252" s="9" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>1722</v>
+        <v>1717</v>
       </c>
       <c r="I252" s="7" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="J252" s="7" t="s">
         <v>1403</v>
@@ -13983,22 +13990,22 @@
         <v>8</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
       <c r="F253" s="9" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="I253" s="7" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="J253" s="7" t="s">
         <v>27</v>
@@ -14012,25 +14019,25 @@
         <v>9</v>
       </c>
       <c r="C254" s="7" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F254" s="7" t="s">
+        <v>1735</v>
+      </c>
+      <c r="G254" s="9" t="s">
+        <v>1725</v>
+      </c>
+      <c r="H254" s="7" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I254" s="7" t="s">
+        <v>1724</v>
+      </c>
+      <c r="J254" s="7" t="s">
         <v>1726</v>
-      </c>
-      <c r="D254" s="8" t="s">
-        <v>1727</v>
-      </c>
-      <c r="F254" s="7" t="s">
-        <v>1740</v>
-      </c>
-      <c r="G254" s="9" t="s">
-        <v>1730</v>
-      </c>
-      <c r="H254" s="7" t="s">
-        <v>1728</v>
-      </c>
-      <c r="I254" s="7" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J254" s="7" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="255" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -14041,25 +14048,25 @@
         <v>10</v>
       </c>
       <c r="C255" s="8" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D255" s="8" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F255" s="8" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G255" s="7" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H255" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I255" s="8" t="s">
         <v>1568</v>
       </c>
-      <c r="D255" s="8" t="s">
-        <v>1569</v>
-      </c>
-      <c r="F255" s="8" t="s">
-        <v>1576</v>
-      </c>
-      <c r="G255" s="8" t="s">
-        <v>1575</v>
-      </c>
-      <c r="H255" s="7" t="s">
-        <v>1719</v>
-      </c>
-      <c r="I255" s="8" t="s">
-        <v>1570</v>
-      </c>
       <c r="J255" s="7" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="15.75" customHeight="1">
@@ -14098,74 +14105,74 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.2" customHeight="1">
       <c r="A1" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.2" customHeight="1">
       <c r="A2" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="B2" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.2" customHeight="1">
       <c r="A3" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="B3" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.2" customHeight="1">
       <c r="A4" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="B4" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.2" customHeight="1">
       <c r="A5" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="B5" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="E5" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.2" customHeight="1">
       <c r="A6" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="B6" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="F6" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="G6" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -14173,391 +14180,391 @@
     </row>
     <row r="7" spans="1:8" ht="19.2" customHeight="1">
       <c r="A7" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="B7" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.2" customHeight="1">
       <c r="A8" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="B8" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.2" customHeight="1">
       <c r="A9" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="B9" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.2" customHeight="1">
       <c r="A10" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="B10" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.2" customHeight="1">
       <c r="A11" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="B11" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.2" customHeight="1">
       <c r="A12" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="B12" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.2" customHeight="1">
       <c r="A13" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="B13" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.2" customHeight="1">
       <c r="A14" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="B14" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.2" customHeight="1">
       <c r="A16" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.2" customHeight="1">
       <c r="A17" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="B17" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.2" customHeight="1">
       <c r="A18" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="B18" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.2" customHeight="1">
       <c r="A19" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="B19" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.2" customHeight="1">
       <c r="A20" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="B20" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.2" customHeight="1">
       <c r="A21" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="B21" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="D21" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19.2" customHeight="1">
       <c r="A22" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="B22" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19.2" customHeight="1">
       <c r="A23" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="B23" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19.2" customHeight="1">
       <c r="A24" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
       <c r="B24" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.2" customHeight="1">
       <c r="A25" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="B25" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.2" customHeight="1">
       <c r="A26" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="B26" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.2" customHeight="1">
       <c r="A27" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="B27" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19.2" customHeight="1">
       <c r="A28" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="B28" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.2" customHeight="1">
       <c r="A29" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="B29" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" ht="19.2" customHeight="1">
       <c r="A30" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="B30" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" ht="19.2" customHeight="1">
       <c r="A31" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="B31" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" ht="19.2" customHeight="1">
       <c r="A32" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="B32" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.2" customHeight="1">
       <c r="A33" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="B33" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.2" customHeight="1">
       <c r="A34" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="B34" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.2" customHeight="1">
       <c r="A35" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="B35" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.2" customHeight="1">
       <c r="A36" t="s">
-        <v>1690</v>
+        <v>1685</v>
       </c>
       <c r="B36" t="s">
-        <v>1691</v>
+        <v>1686</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="19.2" customHeight="1">
       <c r="A37" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="B37" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.2" customHeight="1">
       <c r="A38" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="B38" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.2" customHeight="1">
       <c r="A39" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="B39" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1">
       <c r="A40" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="B40" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.2" customHeight="1">
       <c r="A41" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="B41" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
     </row>
   </sheetData>
